--- a/src/data/Champs.xlsx
+++ b/src/data/Champs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdschutz\Documents\AppRepo\LeagueApp\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976CACF8-B460-4091-8509-54D66C4CF3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D971697-AD70-46A6-83B7-6382163C0DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47E93BDF-67FF-423E-85A7-4AB86E6B0D60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{47E93BDF-67FF-423E-85A7-4AB86E6B0D60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="171">
   <si>
     <t>Top</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Renata</t>
+  </si>
+  <si>
+    <t>Bel'Veth</t>
   </si>
 </sst>
 </file>
@@ -1042,19 +1045,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE43E4B3-58E6-4F7D-8940-0E0EB09227F2}">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1064,7 +1067,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -1084,7 +1087,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>266</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>Aatrox</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>Ahri</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>84</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>Akali</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>166</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>Akshan</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>12</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>Alistar</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>32</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>Amumu</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>34</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>Anivia</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>Annie</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>523</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>Aphelios</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>22</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>Ashe</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>136</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>AurelionSol</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>268</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>Azir</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>432</v>
       </c>
@@ -1387,20 +1390,16 @@
         <v>Bard</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>53</v>
-      </c>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="1"/>
       <c r="K16" t="s">
         <v>20</v>
@@ -1410,12 +1409,12 @@
         <v>Blitzcrank</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -1433,12 +1432,12 @@
         <v>Brand</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -1456,20 +1455,20 @@
         <v>Braum</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="K19" t="s">
         <v>23</v>
@@ -1479,21 +1478,19 @@
         <v>Caitlyn</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
       <c r="K20" t="s">
@@ -1504,23 +1501,21 @@
         <v>Camille</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
       <c r="K21" t="s">
@@ -1531,21 +1526,23 @@
         <v>Cassiopeia</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="1"/>
       <c r="K22" t="s">
@@ -1556,17 +1553,19 @@
         <v>ChoGath</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
@@ -1579,18 +1578,18 @@
         <v>Corki</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="1"/>
@@ -1602,20 +1601,18 @@
         <v>Darius</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="1"/>
@@ -1627,20 +1624,20 @@
         <v>Diana</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="1"/>
@@ -1652,19 +1649,21 @@
         <v>Dr.Mundo</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="1"/>
       <c r="K27" t="s">
@@ -1675,21 +1674,19 @@
         <v>Draven</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
       <c r="K28" t="s">
@@ -1700,18 +1697,20 @@
         <v>Ekko</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
@@ -1723,12 +1722,12 @@
         <v>Elise</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10" t="s">
@@ -1746,19 +1745,19 @@
         <v>Evelynn</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
       <c r="K31" t="s">
@@ -1769,19 +1768,19 @@
         <v>Ezreal</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
       <c r="K32" t="s">
@@ -1792,17 +1791,17 @@
         <v>Fiddlesticks</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
@@ -1815,18 +1814,18 @@
         <v>Fiora</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
@@ -1838,12 +1837,12 @@
         <v>Fizz</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -1851,9 +1850,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
       <c r="K35" t="s">
         <v>39</v>
@@ -1863,20 +1860,22 @@
         <v>Galio</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="K36" t="s">
         <v>40</v>
@@ -1886,20 +1885,18 @@
         <v>Gangplank</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
@@ -1911,18 +1908,20 @@
         <v>Garen</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
@@ -1934,17 +1933,17 @@
         <v>Gnar</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -1957,12 +1956,12 @@
         <v>Gragas</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10" t="s">
@@ -1980,17 +1979,17 @@
         <v>Graves</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>887</v>
+        <v>104</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
@@ -2003,19 +2002,17 @@
         <v>Gwen</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>120</v>
+        <v>887</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
@@ -2028,20 +2025,20 @@
         <v>Hecarim</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="D43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
@@ -2053,18 +2050,20 @@
         <v>Heimerdinger</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
@@ -2076,20 +2075,18 @@
         <v>Illaoi</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
@@ -2101,19 +2098,19 @@
         <v>Irelia</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
@@ -2126,20 +2123,22 @@
         <v>Ivern</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G47" s="11"/>
       <c r="H47" s="1"/>
       <c r="K47" t="s">
         <v>52</v>
@@ -2149,20 +2148,20 @@
         <v>Janna</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D48" s="10"/>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="K48" t="s">
         <v>53</v>
@@ -2172,16 +2171,14 @@
         <v>JarvanIV</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="10" t="s">
         <v>6</v>
       </c>
@@ -2197,20 +2194,20 @@
         <v>Jax</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="1"/>
@@ -2222,19 +2219,21 @@
         <v>Jayce</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="E51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="10"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
       <c r="K51" t="s">
@@ -2245,12 +2244,12 @@
         <v>Jhin</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -2268,12 +2267,12 @@
         <v>Jinx</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -2291,12 +2290,12 @@
         <v>KaiSa</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>429</v>
+        <v>145</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -2314,22 +2313,20 @@
         <v>Kalista</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C55" s="9"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="F55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="11"/>
       <c r="H55" s="1"/>
       <c r="K55" t="s">
         <v>60</v>
@@ -2339,20 +2336,22 @@
         <v>Karma</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="K56" t="s">
         <v>61</v>
@@ -2362,18 +2361,18 @@
         <v>Karthus</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
       <c r="H57" s="1"/>
@@ -2385,12 +2384,12 @@
         <v>Kassadin</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -2408,18 +2407,18 @@
         <v>Katarina</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="11"/>
       <c r="H59" s="1"/>
@@ -2431,17 +2430,17 @@
         <v>Kayle</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="10"/>
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
       <c r="G60" s="11"/>
@@ -2454,17 +2453,17 @@
         <v>Kayn</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="11"/>
@@ -2477,17 +2476,17 @@
         <v>Kennen</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="10"/>
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="11"/>
@@ -2500,12 +2499,12 @@
         <v>KhaZix</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10" t="s">
@@ -2523,18 +2522,16 @@
         <v>Kindred</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C64" s="9"/>
       <c r="D64" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
@@ -2548,19 +2545,21 @@
         <v>Kled</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F65" s="10"/>
       <c r="G65" s="11"/>
       <c r="H65" s="1"/>
       <c r="K65" t="s">
@@ -2571,19 +2570,19 @@
         <v>KogMaw</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G66" s="11"/>
       <c r="H66" s="1"/>
       <c r="K66" t="s">
@@ -2594,18 +2593,18 @@
         <v>LeBlanc</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="11"/>
       <c r="H67" s="1"/>
@@ -2617,20 +2616,20 @@
         <v>LeeSin</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G68" s="11"/>
       <c r="H68" s="1"/>
       <c r="K68" t="s">
         <v>73</v>
@@ -2640,24 +2639,20 @@
         <v>Leona</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>876</v>
+        <v>89</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="K69" t="s">
         <v>74</v>
@@ -2667,17 +2662,21 @@
         <v>Lillia</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>127</v>
+        <v>876</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E70" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="11"/>
@@ -2690,23 +2689,19 @@
         <v>Lissandra</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C71" s="9"/>
       <c r="D71" s="10"/>
       <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F71" s="10"/>
       <c r="G71" s="11"/>
       <c r="H71" s="1"/>
       <c r="K71" t="s">
@@ -2717,20 +2712,24 @@
         <v>Lucian</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="E72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="1"/>
       <c r="K72" t="s">
         <v>77</v>
@@ -2740,18 +2739,16 @@
         <v>Lulu</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
       <c r="G73" s="11" t="s">
         <v>6</v>
@@ -2765,19 +2762,17 @@
         <v>Lux</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C74" s="9"/>
       <c r="D74" s="10"/>
       <c r="E74" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="11" t="s">
@@ -2792,20 +2787,24 @@
         <v>Malphite</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" s="10"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="K75" t="s">
         <v>80</v>
@@ -2815,22 +2814,20 @@
         <v>Malzahar</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C76" s="9"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G76" s="11"/>
       <c r="H76" s="1"/>
       <c r="K76" t="s">
         <v>81</v>
@@ -2840,20 +2837,22 @@
         <v>Maokai</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="10"/>
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="11"/>
+      <c r="G77" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="K77" t="s">
         <v>82</v>
@@ -2863,19 +2862,19 @@
         <v>MasterYi</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="D78" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F78" s="10"/>
       <c r="G78" s="11"/>
       <c r="H78" s="1"/>
       <c r="K78" t="s">
@@ -2886,21 +2885,19 @@
         <v>MissFortune</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G79" s="11"/>
       <c r="H79" s="1"/>
       <c r="K79" t="s">
@@ -2911,17 +2908,19 @@
         <v>Mordekaiser</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
       <c r="G80" s="11"/>
@@ -2934,20 +2933,20 @@
         <v>Morgana</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D81" s="10"/>
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G81" s="11"/>
       <c r="H81" s="1"/>
       <c r="K81" t="s">
         <v>86</v>
@@ -2957,12 +2956,12 @@
         <v>Nami</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -2980,20 +2979,20 @@
         <v>Nasus</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C83" s="9"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="K83" t="s">
         <v>88</v>
@@ -3003,20 +3002,20 @@
         <v>Nautilus</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D84" s="10"/>
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G84" s="11"/>
       <c r="H84" s="1"/>
       <c r="K84" t="s">
         <v>89</v>
@@ -3026,20 +3025,20 @@
         <v>Neeko</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>518</v>
+        <v>111</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E85" s="9"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="K85" t="s">
         <v>90</v>
@@ -3049,18 +3048,18 @@
         <v>Nidalee</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F86" s="10"/>
       <c r="G86" s="11"/>
       <c r="H86" s="1"/>
@@ -3072,22 +3071,18 @@
         <v>Nocturne</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="10"/>
       <c r="G87" s="11"/>
       <c r="H87" s="1"/>
@@ -3098,19 +3093,21 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D88" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="11"/>
@@ -3123,20 +3120,20 @@
         <v>Olaf</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="11"/>
       <c r="H89" s="1"/>
@@ -3148,18 +3145,20 @@
         <v>Orianna</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="9"/>
       <c r="F90" s="10"/>
       <c r="G90" s="11"/>
       <c r="H90" s="1"/>
@@ -3171,18 +3170,18 @@
         <v>Ornn</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>516</v>
+        <v>61</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C91" s="9"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F91" s="10"/>
       <c r="G91" s="11"/>
       <c r="H91" s="1"/>
@@ -3194,24 +3193,20 @@
         <v>Pantheon</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="10"/>
-      <c r="E92" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G92" s="11"/>
       <c r="H92" s="1"/>
       <c r="K92" t="s">
         <v>97</v>
@@ -3221,23 +3216,23 @@
         <v>Poppy</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F93" s="10"/>
       <c r="G93" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H93" s="1"/>
       <c r="K93" t="s">
@@ -3248,21 +3243,23 @@
         <v>Pyke</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>555</v>
+        <v>78</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="10"/>
       <c r="G94" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H94" s="1"/>
       <c r="K94" t="s">
@@ -3273,20 +3270,22 @@
         <v>Qiyana</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>246</v>
+        <v>555</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" s="10"/>
-      <c r="G95" s="11"/>
+      <c r="G95" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H95" s="1"/>
       <c r="K95" t="s">
         <v>100</v>
@@ -3296,18 +3295,18 @@
         <v>Quinn</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="11"/>
       <c r="H96" s="1"/>
@@ -3319,20 +3318,20 @@
         <v>Rakan</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D97" s="10"/>
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G97" s="11"/>
       <c r="H97" s="1"/>
       <c r="K97" t="s">
         <v>102</v>
@@ -3342,20 +3341,20 @@
         <v>Rammus</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>33</v>
+        <v>497</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="9"/>
-      <c r="D98" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D98" s="10"/>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="11"/>
+      <c r="G98" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H98" s="1"/>
       <c r="K98" t="s">
         <v>103</v>
@@ -3365,12 +3364,12 @@
         <v>RekSai</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="10" t="s">
@@ -3388,20 +3387,20 @@
         <v>Rell</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="G100" s="11"/>
       <c r="H100" s="1"/>
       <c r="K100" t="s">
         <v>106</v>
@@ -3410,19 +3409,19 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>888</v>
+        <v>526</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="10"/>
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
       <c r="G101" s="11" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="H101" s="1"/>
       <c r="K101" t="s">
@@ -3433,22 +3432,20 @@
         <v>Renekton</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>58</v>
+        <v>888</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C102" s="9"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="E102" s="9"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="11"/>
+      <c r="G102" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="K102" t="s">
         <v>108</v>
@@ -3458,20 +3455,20 @@
         <v>Rengar</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
+        <v>58</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="9"/>
       <c r="F103" s="10"/>
       <c r="G103" s="11"/>
       <c r="H103" s="1"/>
@@ -3483,17 +3480,19 @@
         <v>Riven</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
       <c r="G104" s="11"/>
@@ -3506,20 +3505,18 @@
         <v>Rumble</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="10"/>
-      <c r="E105" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="E105" s="9"/>
       <c r="F105" s="10"/>
       <c r="G105" s="11"/>
       <c r="H105" s="1"/>
@@ -3531,19 +3528,19 @@
         <v>Ryze</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="11"/>
@@ -3556,19 +3553,21 @@
         <v>Samira</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D107" s="10"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="E107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="10"/>
       <c r="G107" s="11"/>
       <c r="H107" s="1"/>
       <c r="K107" t="s">
@@ -3579,19 +3578,19 @@
         <v>Sejuani</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D108" s="10"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G108" s="11"/>
       <c r="H108" s="1"/>
       <c r="K108" t="s">
@@ -3602,22 +3601,20 @@
         <v>Senna</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="9"/>
-      <c r="D109" s="10"/>
+      <c r="D109" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="1"/>
       <c r="K109" t="s">
         <v>115</v>
@@ -3627,17 +3624,19 @@
         <v>Seraphine</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="10"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="G110" s="11" t="s">
         <v>6</v>
       </c>
@@ -3650,19 +3649,15 @@
         <v>Sett</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>875</v>
+        <v>147</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
       <c r="G111" s="11" t="s">
@@ -3677,21 +3672,23 @@
         <v>Shaco</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>35</v>
+        <v>875</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D112" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="10"/>
       <c r="G112" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H112" s="1"/>
       <c r="K112" t="s">
@@ -3702,17 +3699,17 @@
         <v>Shen</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
       <c r="G113" s="11" t="s">
@@ -3727,20 +3724,22 @@
         <v>Shyvana</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="10"/>
       <c r="E114" s="9"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="11"/>
+      <c r="G114" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H114" s="1"/>
       <c r="K114" t="s">
         <v>120</v>
@@ -3750,17 +3749,17 @@
         <v>Singed</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
       <c r="G115" s="11"/>
@@ -3773,12 +3772,12 @@
         <v>Sion</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>6</v>
@@ -3796,19 +3795,19 @@
         <v>Sivir</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D117" s="10"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F117" s="10"/>
       <c r="G117" s="11"/>
       <c r="H117" s="1"/>
       <c r="K117" t="s">
@@ -3819,19 +3818,19 @@
         <v>Skarner</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D118" s="10"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G118" s="11"/>
       <c r="H118" s="1"/>
       <c r="K118" t="s">
@@ -3842,20 +3841,20 @@
         <v>Sona</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="10"/>
+      <c r="D119" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G119" s="11"/>
       <c r="H119" s="1"/>
       <c r="K119" t="s">
         <v>125</v>
@@ -3865,12 +3864,12 @@
         <v>Soraka</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
@@ -3888,21 +3887,17 @@
         <v>Swain</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="11" t="s">
         <v>6</v>
       </c>
@@ -3915,24 +3910,24 @@
         <v>Sylas</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>517</v>
+        <v>50</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="11"/>
+      <c r="F122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H122" s="1"/>
       <c r="K122" t="s">
         <v>128</v>
@@ -3942,17 +3937,21 @@
         <v>Syndra</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>134</v>
+        <v>517</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E123" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="11"/>
@@ -3965,20 +3964,20 @@
         <v>TahmKench</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F124" s="10"/>
-      <c r="G124" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G124" s="11"/>
       <c r="H124" s="1"/>
       <c r="K124" t="s">
         <v>130</v>
@@ -3988,20 +3987,20 @@
         <v>Taliyah</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D125" s="10"/>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="11"/>
+      <c r="G125" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H125" s="1"/>
       <c r="K125" t="s">
         <v>131</v>
@@ -4011,18 +4010,18 @@
         <v>Talon</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="10"/>
       <c r="G126" s="11"/>
       <c r="H126" s="1"/>
@@ -4034,20 +4033,20 @@
         <v>Taric</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F127" s="10"/>
-      <c r="G127" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G127" s="11"/>
       <c r="H127" s="1"/>
       <c r="K127" t="s">
         <v>133</v>
@@ -4057,20 +4056,20 @@
         <v>Teemo</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C128" s="9"/>
       <c r="D128" s="10"/>
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="11"/>
+      <c r="G128" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H128" s="1"/>
       <c r="K128" t="s">
         <v>134</v>
@@ -4080,20 +4079,20 @@
         <v>Thresh</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D129" s="10"/>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G129" s="11"/>
       <c r="H129" s="1"/>
       <c r="K129" t="s">
         <v>135</v>
@@ -4103,20 +4102,20 @@
         <v>Tristana</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>18</v>
+        <v>412</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="11"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H130" s="1"/>
       <c r="K130" t="s">
         <v>136</v>
@@ -4126,19 +4125,19 @@
         <v>Trundle</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D131" s="10"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="10"/>
+      <c r="F131" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G131" s="11"/>
       <c r="H131" s="1"/>
       <c r="K131" t="s">
@@ -4149,17 +4148,17 @@
         <v>Tryndamere</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
       <c r="G132" s="11"/>
@@ -4172,18 +4171,18 @@
         <v>TwistedFate</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D133" s="10"/>
-      <c r="E133" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E133" s="9"/>
       <c r="F133" s="10"/>
       <c r="G133" s="11"/>
       <c r="H133" s="1"/>
@@ -4195,19 +4194,19 @@
         <v>Twitch</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="E134" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="10"/>
       <c r="G134" s="11"/>
       <c r="H134" s="1"/>
       <c r="K134" t="s">
@@ -4218,19 +4217,19 @@
         <v>Udyr</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D135" s="10"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G135" s="11"/>
       <c r="H135" s="1"/>
       <c r="K135" t="s">
@@ -4241,17 +4240,17 @@
         <v>Urgot</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10"/>
       <c r="G136" s="11"/>
@@ -4264,19 +4263,19 @@
         <v>Varus</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D137" s="10"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F137" s="10"/>
       <c r="G137" s="11"/>
       <c r="H137" s="1"/>
       <c r="K137" t="s">
@@ -4287,16 +4286,14 @@
         <v>Vayne</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C138" s="9"/>
       <c r="D138" s="10"/>
       <c r="E138" s="9"/>
       <c r="F138" s="10" t="s">
@@ -4312,19 +4309,21 @@
         <v>Veigar</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D139" s="10"/>
-      <c r="E139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="10"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G139" s="11"/>
       <c r="H139" s="1"/>
       <c r="K139" t="s">
@@ -4335,12 +4334,12 @@
         <v>VelKoz</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="10"/>
@@ -4348,9 +4347,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="10"/>
-      <c r="G140" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G140" s="11"/>
       <c r="H140" s="1"/>
       <c r="K140" t="s">
         <v>146</v>
@@ -4360,20 +4357,22 @@
         <v>Vex</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>711</v>
+        <v>161</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="10"/>
       <c r="E141" s="9" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F141" s="10"/>
-      <c r="G141" s="11"/>
+      <c r="G141" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H141" s="1"/>
       <c r="K141" t="s">
         <v>147</v>
@@ -4383,18 +4382,18 @@
         <v>Vi</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>254</v>
+        <v>711</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="9"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F142" s="10"/>
       <c r="G142" s="11"/>
       <c r="H142" s="1"/>
@@ -4406,12 +4405,12 @@
         <v>Viego</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="10" t="s">
@@ -4429,18 +4428,18 @@
         <v>Viktor</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="9"/>
       <c r="F144" s="10"/>
       <c r="G144" s="11"/>
       <c r="H144" s="1"/>
@@ -4452,16 +4451,14 @@
         <v>Vladimir</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C145" s="9"/>
       <c r="D145" s="10"/>
       <c r="E145" s="9" t="s">
         <v>6</v>
@@ -4477,20 +4474,20 @@
         <v>Volibear</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="9"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F146" s="10"/>
       <c r="G146" s="11"/>
       <c r="H146" s="1"/>
@@ -4502,14 +4499,16 @@
         <v>Warwick</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="13">
-        <v>19</v>
+    <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>106</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C147" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D147" s="10" t="s">
         <v>6</v>
       </c>
@@ -4525,19 +4524,19 @@
         <v>Wukong</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="4">
-        <v>498</v>
+    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="13">
+        <v>19</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
+      <c r="D148" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="F148" s="10"/>
       <c r="G148" s="11"/>
       <c r="H148" s="1"/>
       <c r="K148" t="s">
@@ -4548,22 +4547,20 @@
         <v>Xayah</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="11"/>
       <c r="H149" s="1"/>
       <c r="K149" t="s">
         <v>155</v>
@@ -4573,20 +4570,22 @@
         <v>Xerath</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E150" s="9"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F150" s="10"/>
-      <c r="G150" s="11"/>
+      <c r="G150" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H150" s="1"/>
       <c r="K150" t="s">
         <v>156</v>
@@ -4596,23 +4595,19 @@
         <v>XinZhao</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="10"/>
-      <c r="E151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
       <c r="G151" s="11"/>
       <c r="H151" s="1"/>
       <c r="K151" t="s">
@@ -4623,21 +4618,23 @@
         <v>Yasuo</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>777</v>
+        <v>157</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F152" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G152" s="11"/>
       <c r="H152" s="1"/>
       <c r="K152" t="s">
@@ -4648,18 +4645,20 @@
         <v>Yone</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>83</v>
+        <v>777</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D153" s="10"/>
-      <c r="E153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="11"/>
       <c r="H153" s="1"/>
@@ -4671,20 +4670,20 @@
         <v>Yorick</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C154" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D154" s="10"/>
       <c r="E154" s="9"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G154" s="11"/>
       <c r="H154" s="1"/>
       <c r="K154" t="s">
         <v>160</v>
@@ -4694,23 +4693,19 @@
         <v>Yuumi</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>350</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>6</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="9"/>
       <c r="F155" s="10"/>
       <c r="G155" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H155" s="1"/>
       <c r="K155" t="s">
@@ -4721,20 +4716,24 @@
         <v>Zac</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="9"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="11"/>
+      <c r="G156" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H156" s="1"/>
       <c r="K156" t="s">
         <v>162</v>
@@ -4744,19 +4743,19 @@
         <v>Zed</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="E157" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="10"/>
       <c r="G157" s="11"/>
       <c r="H157" s="1"/>
       <c r="K157" t="s">
@@ -4767,20 +4766,18 @@
         <v>Zeri</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="E158" s="9"/>
       <c r="F158" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="1"/>
@@ -4792,22 +4789,22 @@
         <v>Ziggs</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G159" s="11"/>
       <c r="H159" s="1"/>
       <c r="K159" t="s">
         <v>165</v>
@@ -4817,20 +4814,22 @@
         <v>Zilean</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F160" s="10"/>
-      <c r="G160" s="11"/>
+      <c r="G160" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H160" s="1"/>
       <c r="K160" t="s">
         <v>166</v>
@@ -4840,40 +4839,46 @@
         <v>Zoe</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F161" s="10"/>
-      <c r="G161" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="G161" s="11"/>
       <c r="H161" s="1"/>
       <c r="K161" t="s">
         <v>167</v>
       </c>
       <c r="L161" t="str">
-        <f t="shared" ref="L149:L161" si="3">SUBSTITUTE(SUBSTITUTE(K161," ",""),"'","")</f>
+        <f t="shared" ref="L161" si="3">SUBSTITUTE(SUBSTITUTE(K161," ",""),"'","")</f>
         <v>Zyra</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="4"/>
-      <c r="B162" s="8"/>
+    <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>143</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C162" s="9"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="11"/>
+      <c r="G162" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -4883,7 +4888,7 @@
       <c r="G163" s="11"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -4893,7 +4898,7 @@
       <c r="G164" s="11"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -4903,7 +4908,7 @@
       <c r="G165" s="11"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -4913,7 +4918,7 @@
       <c r="G166" s="11"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -4923,7 +4928,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -4933,7 +4938,7 @@
       <c r="G168" s="11"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -4943,7 +4948,7 @@
       <c r="G169" s="11"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -4953,7 +4958,7 @@
       <c r="G170" s="11"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -4963,7 +4968,7 @@
       <c r="G171" s="11"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -4973,7 +4978,7 @@
       <c r="G172" s="11"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -4983,7 +4988,7 @@
       <c r="G173" s="11"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -4993,7 +4998,7 @@
       <c r="G174" s="11"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -5003,7 +5008,7 @@
       <c r="G175" s="11"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -5013,7 +5018,7 @@
       <c r="G176" s="11"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -5023,7 +5028,7 @@
       <c r="G177" s="11"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -5033,7 +5038,7 @@
       <c r="G178" s="11"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -5043,7 +5048,7 @@
       <c r="G179" s="11"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -5053,7 +5058,7 @@
       <c r="G180" s="11"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -5063,7 +5068,7 @@
       <c r="G181" s="11"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -5073,7 +5078,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -5083,7 +5088,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -5093,7 +5098,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -5103,7 +5108,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -5113,7 +5118,7 @@
       <c r="G186" s="11"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -5123,7 +5128,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -5133,7 +5138,7 @@
       <c r="G188" s="11"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -5143,7 +5148,7 @@
       <c r="G189" s="11"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -5153,7 +5158,7 @@
       <c r="G190" s="11"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -5163,7 +5168,7 @@
       <c r="G191" s="11"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -5173,7 +5178,7 @@
       <c r="G192" s="11"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -5183,7 +5188,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -5193,7 +5198,7 @@
       <c r="G194" s="11"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -5203,7 +5208,7 @@
       <c r="G195" s="11"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -5213,7 +5218,7 @@
       <c r="G196" s="11"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5223,7 +5228,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5233,7 +5238,7 @@
       <c r="G198" s="11"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5243,7 +5248,7 @@
       <c r="G199" s="11"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
